--- a/planning/Excels/Templates/Structures_template.xlsx
+++ b/planning/Excels/Templates/Structures_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2424069M\Documents\GitHub\IbM\planning\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2424069M\Documents\GitHub\IbM\planning\Excels\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA3334E-15DE-42BF-9E7B-D716600A847A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA76C2D3-9B87-4759-A646-5B7F9124A5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="30" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="105">
   <si>
     <t>Yield</t>
   </si>
@@ -408,6 +408,12 @@
   </si>
   <si>
     <t>SP</t>
+  </si>
+  <si>
+    <t>constantpH</t>
+  </si>
+  <si>
+    <t>inacivationBac</t>
   </si>
 </sst>
 </file>
@@ -2394,7 +2400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2964,10 +2970,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFEF6780-891B-4675-A5DB-9A92233CA9A3}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2992,16 +2998,32 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="143" t="s">
+      <c r="A3" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="112" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="112" t="b">
-        <v>0</v>
+      <c r="B4" s="112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="112" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3" xr:uid="{B08F7F23-6378-486B-BA33-8838FCC9F119}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3:B5" xr:uid="{B08F7F23-6378-486B-BA33-8838FCC9F119}">
       <formula1>"true, false"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{74C98AF5-8E66-4CB5-8E62-0DF167370EDA}">

--- a/planning/Excels/Templates/Structures_template.xlsx
+++ b/planning/Excels/Templates/Structures_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2424069M\Documents\GitHub\IbM\planning\Excels\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA76C2D3-9B87-4759-A646-5B7F9124A5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C417534C-CAFD-4FB7-B303-C278A7C48249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="30" r:id="rId1"/>
@@ -190,9 +190,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>k</t>
-  </si>
-  <si>
     <t>s_dist</t>
   </si>
   <si>
@@ -414,6 +411,9 @@
   </si>
   <si>
     <t>inacivationBac</t>
+  </si>
+  <si>
+    <t>kDist</t>
   </si>
 </sst>
 </file>
@@ -2175,29 +2175,29 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="141" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="141" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="141" t="s">
+      <c r="C1" s="141" t="s">
         <v>90</v>
-      </c>
-      <c r="C1" s="141" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="142" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>94</v>
-      </c>
       <c r="C2" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B3" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2209,8 +2209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2327,7 +2327,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>36</v>
+        <v>104</v>
       </c>
       <c r="B9" s="119">
         <v>1</v>
@@ -2339,7 +2339,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" s="85">
         <f>2*B3</f>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="11" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A11" s="73" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="86">
         <f>(2*B3)*0.1</f>
@@ -2414,7 +2414,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="75" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B1" s="118">
         <f>(0.1/3)*10^(-3)</f>
@@ -2442,7 +2442,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="119">
         <f>8.3144/1000</f>
@@ -2456,13 +2456,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="77" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="119">
         <v>8.2057459999999999E-2</v>
       </c>
       <c r="C4" s="72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
@@ -2482,35 +2482,35 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="77" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="96">
         <f>B7</f>
         <v>1.3463968515384828E-10</v>
       </c>
       <c r="C6" s="72" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="77" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="96">
         <f>((Bacteria!B8*Bacteria!B1)/(3.5*1000/900))/1000</f>
         <v>1.3463968515384828E-10</v>
       </c>
       <c r="C7" s="72" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" s="117"/>
       <c r="E7" s="22"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="77" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="96">
         <v>7</v>
@@ -2523,40 +2523,40 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="77" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B9" s="144">
         <v>1</v>
       </c>
       <c r="C9" s="72" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="77" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" s="96">
         <v>10.8</v>
       </c>
       <c r="C10" s="72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="78" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" s="120">
         <f>(B7*1000)/0.01</f>
         <v>1.3463968515384828E-5</v>
       </c>
       <c r="C11" s="79" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
@@ -2598,7 +2598,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="80" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" s="121">
         <f>B3/B5</f>
@@ -2612,7 +2612,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="82" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="122">
         <f>B4/B6</f>
@@ -2626,7 +2626,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="82" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="123">
         <f>(Bacteria!B6+2*B8+10*10^(-6))</f>
@@ -2640,7 +2640,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="82" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="123">
         <f>(Bacteria!B6+2*B8+10*10^(-6))</f>
@@ -2654,7 +2654,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="82" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="123">
         <f>0.000001*2</f>
@@ -2668,7 +2668,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" s="123">
         <f>0.000001*2</f>
@@ -2682,7 +2682,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="82" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" s="123">
         <f>0.000001*2</f>
@@ -2696,7 +2696,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="82" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="90">
         <f>5*10^(-6)</f>
@@ -2710,81 +2710,81 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="82" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" s="124">
         <f>150*24</f>
         <v>3600</v>
       </c>
       <c r="C9" s="83" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="82" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" s="123">
         <v>1E-8</v>
       </c>
       <c r="C10" s="83" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="82" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" s="134">
         <v>0.1</v>
       </c>
       <c r="C11" s="83" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="117"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="82" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" s="134">
         <v>0.1</v>
       </c>
       <c r="C12" s="83" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
     </row>
     <row r="13" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="88" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" s="135">
         <f>24</f>
         <v>24</v>
       </c>
       <c r="C13" s="87" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
     </row>
     <row r="14" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="88" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B14" s="139">
         <f>7*24</f>
         <v>168</v>
       </c>
       <c r="C14" s="140" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="24"/>
@@ -2824,61 +2824,61 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="84" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B1" s="125">
         <f>1*10^(-9)*3600</f>
         <v>3.6000000000000003E-6</v>
       </c>
       <c r="C1" s="93" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="57" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="96">
         <f>1*10^(-9)*3600</f>
         <v>3.6000000000000003E-6</v>
       </c>
       <c r="C2" s="92" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="96">
         <f>1*10^(-9)*3600</f>
         <v>3.6000000000000003E-6</v>
       </c>
       <c r="C3" s="92" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" s="96">
         <f>1*10^(-9)*3600</f>
         <v>3.6000000000000003E-6</v>
       </c>
       <c r="C4" s="92" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="94">
         <v>7.5600000000000005E-6</v>
       </c>
       <c r="C5" s="95" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2899,68 +2899,68 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="97" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" s="136">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C1" s="81" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="98" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" s="137">
         <v>0.5</v>
       </c>
       <c r="C2" s="83" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="98" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="137">
         <v>0.5</v>
       </c>
       <c r="C3" s="83" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="98" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="137">
         <v>0.5</v>
       </c>
       <c r="C4" s="83" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="98" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" s="137">
         <v>0.5</v>
       </c>
       <c r="C5" s="83" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="99" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" s="138">
         <v>0.5</v>
       </c>
       <c r="C6" s="87" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2972,7 +2972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFEF6780-891B-4675-A5DB-9A92233CA9A3}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -2983,7 +2983,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" s="118" t="b">
         <v>1</v>
@@ -2991,15 +2991,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="71" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="118" t="s">
         <v>97</v>
-      </c>
-      <c r="B2" s="118" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="71" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B3" s="112" t="b">
         <v>1</v>
@@ -3007,7 +3007,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="71" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" s="112" t="b">
         <v>0</v>
@@ -3015,7 +3015,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="143" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" s="112" t="b">
         <v>1</v>
@@ -3051,13 +3051,13 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="22"/>
       <c r="B1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>71</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>72</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>10</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="109" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="112">
         <f>10*10^(-6)</f>
@@ -3083,7 +3083,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="109" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" s="112">
         <v>0</v>
@@ -3100,7 +3100,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="109" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="112">
         <v>0</v>
@@ -3179,18 +3179,18 @@
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="22"/>
       <c r="B1" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>87</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="109" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="112">
         <v>0</v>
@@ -3204,7 +3204,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="109" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" s="112">
         <v>0</v>
@@ -3218,7 +3218,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="109" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="112">
         <v>0</v>
@@ -3297,29 +3297,29 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="109" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="112">
         <v>0.01</v>
       </c>
       <c r="C2" s="111" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="109" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" s="112">
         <v>0.01</v>
       </c>
       <c r="C3" s="111" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="109" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="112">
         <v>0.01</v>
@@ -3399,17 +3399,17 @@
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="22"/>
       <c r="B1" s="145" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C1" s="146"/>
       <c r="D1" s="147"/>
       <c r="E1" s="145" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F1" s="146"/>
       <c r="G1" s="147"/>
       <c r="H1" s="145" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I1" s="146"/>
       <c r="J1" s="147"/>
@@ -3446,7 +3446,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="100">
         <v>-1</v>
@@ -3478,7 +3478,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" s="103">
         <v>0</v>
@@ -3670,7 +3670,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10" s="100">
         <v>0</v>
@@ -3702,7 +3702,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" s="103">
         <v>0</v>
@@ -3734,7 +3734,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B12" s="105">
         <v>0</v>
@@ -3865,7 +3865,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" s="96">
         <f>Parameters!B1</f>
@@ -3883,7 +3883,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="96">
         <f>Parameters!B1</f>
@@ -3954,7 +3954,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6" s="126">
         <v>0</v>
@@ -3971,7 +3971,7 @@
     </row>
     <row r="7" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" s="116">
         <v>0</v>
@@ -3988,7 +3988,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B8" s="86">
         <v>0</v>
@@ -4035,7 +4035,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" s="118">
         <f>2*Parameters!B1</f>
@@ -4056,7 +4056,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="96">
         <f>2*Parameters!B1</f>
@@ -4204,7 +4204,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="32" t="s">
         <v>22</v>
@@ -4230,7 +4230,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" s="37" t="s">
         <v>22</v>
@@ -4386,7 +4386,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" s="127" t="s">
         <v>22</v>
@@ -4412,7 +4412,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10" s="53" t="s">
         <v>22</v>
@@ -4438,7 +4438,7 @@
     </row>
     <row r="11" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="65" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B11" s="130" t="s">
         <v>22</v>
@@ -4464,7 +4464,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" s="60" t="s">
         <v>23</v>
@@ -4484,7 +4484,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13" s="60" t="s">
         <v>23</v>
@@ -4604,7 +4604,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="52" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B19" s="127" t="s">
         <v>23</v>
@@ -4626,7 +4626,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B20" s="53" t="s">
         <v>23</v>
@@ -4648,7 +4648,7 @@
     </row>
     <row r="21" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="65" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B21" s="66" t="s">
         <v>23</v>
